--- a/html/resources/1condition/trialsB5.xlsx
+++ b/html/resources/1condition/trialsB5.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janet/Desktop/Sinai_Projects/Code/fish-task-6B20T/1condition/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janet/Desktop/Sinai_Projects/Code/fish-task-6B20T/html/resources/1condition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED3A2B6-9B05-8947-AE2D-66E4E2809CA9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD945A2-30F5-4C43-A695-A12D38C74681}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,13 +68,13 @@
     <t>stimuli/bead_b.PNG</t>
   </si>
   <si>
-    <t>stimuli/blank.JPG</t>
-  </si>
-  <si>
     <t>stimuli/bead_g.PNG</t>
   </si>
   <si>
     <t>stimuli/bead_y.PNG</t>
+  </si>
+  <si>
+    <t>stimuli/blank.jpg</t>
   </si>
 </sst>
 </file>
@@ -444,16 +444,16 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -470,19 +470,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -494,7 +494,7 @@
         <v>9</v>
       </c>
       <c r="J3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -505,16 +505,16 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -534,19 +534,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -558,7 +558,7 @@
         <v>9</v>
       </c>
       <c r="J5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -569,13 +569,13 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -590,7 +590,7 @@
         <v>9</v>
       </c>
       <c r="J6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -604,13 +604,13 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -627,7 +627,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -636,7 +636,7 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
@@ -659,7 +659,7 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -668,7 +668,7 @@
         <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -685,13 +685,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
@@ -714,16 +714,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -743,19 +743,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -773,16 +773,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
@@ -803,19 +803,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -833,19 +833,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -863,19 +863,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -896,16 +896,16 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -922,19 +922,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -954,16 +954,16 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D19" t="s">
         <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -980,19 +980,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E20" t="s">
         <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -1009,16 +1009,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21" t="s">
         <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
         <v>11</v>
